--- a/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_2_participant.xlsx
+++ b/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_2_participant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\GUINEE CONAKRY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\OEM\Guinea Conakry\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C066F5-735F-446D-87BA-1608B4AC6D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54FB360-65A0-40B5-83EB-6EC9DDCD0188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -265,12 +265,6 @@
     <t>Doit-être inférieure à l'âge du participant</t>
   </si>
   <si>
-    <t>(Juin 2022) oncho OEM - 2. Formulaire Participant V1</t>
-  </si>
-  <si>
-    <t>gn_oncho_oem_2_participant_202206_v1</t>
-  </si>
-  <si>
     <t>6. Le participant a-t-il donné son consentement ?</t>
   </si>
   <si>
@@ -311,6 +305,12 @@
   </si>
   <si>
     <t>Code sur 2 chiffres uniquement</t>
+  </si>
+  <si>
+    <t>gn_oncho_oem_202310_2_participant</t>
+  </si>
+  <si>
+    <t>(2023 Oct) oncho OEM - 2. Formulaire Participant</t>
   </si>
 </sst>
 </file>
@@ -783,27 +783,27 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" sqref="A1:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="1"/>
-    <col min="2" max="2" width="20.296875" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="47.5" customWidth="1"/>
-    <col min="4" max="4" width="47.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="37.796875" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="37.75" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" customWidth="1"/>
-    <col min="11" max="11" width="35.3984375" customWidth="1"/>
-    <col min="12" max="12" width="13.8984375" customWidth="1"/>
-    <col min="13" max="13" width="36.59765625" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="35.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="18">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="18.75">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -855,17 +855,17 @@
         <v>53</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="18" t="s">
@@ -971,7 +971,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -994,7 +994,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -1011,7 +1011,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:14" ht="46.8">
+    <row r="9" spans="1:14" ht="47.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1019,17 +1019,17 @@
         <v>64</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>67</v>
@@ -1038,7 +1038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="46.8">
+    <row r="10" spans="1:14" ht="47.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1046,17 +1046,17 @@
         <v>65</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>68</v>
@@ -1073,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1098,7 +1098,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="16"/>
       <c r="F12" s="19" t="s">
@@ -1114,7 +1114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="31.2">
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="31.5">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>73</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>74</v>
@@ -1222,17 +1222,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
-    <col min="2" max="2" width="39.59765625" customWidth="1"/>
-    <col min="3" max="3" width="23.796875" customWidth="1"/>
-    <col min="4" max="4" width="11.796875" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1611,14 +1611,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="46.09765625" customWidth="1"/>
-    <col min="2" max="2" width="33.8984375" customWidth="1"/>
+    <col min="1" max="1" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1634,10 +1634,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>

--- a/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_2_participant.xlsx
+++ b/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_2_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\OEM\Guinea Conakry\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54FB360-65A0-40B5-83EB-6EC9DDCD0188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4E1FE2-C749-4DC4-B329-1D7ADD3F47C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>type</t>
   </si>
@@ -184,9 +184,6 @@
     <t>barcode</t>
   </si>
   <si>
-    <t>p_river_name</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>3. Sélectionnez la Sous-Préfecture</t>
   </si>
   <si>
-    <t>5. Sélectionnez la rivière :</t>
-  </si>
-  <si>
     <t>11. L'échantillon a-t-il été prélevé ?</t>
   </si>
   <si>
@@ -307,10 +301,34 @@
     <t>Code sur 2 chiffres uniquement</t>
   </si>
   <si>
-    <t>gn_oncho_oem_202310_2_participant</t>
-  </si>
-  <si>
-    <t>(2023 Oct) oncho OEM - 2. Formulaire Participant</t>
+    <t>(2023 Oct) oncho OEM - 2. Formulaire Participant V2</t>
+  </si>
+  <si>
+    <t>gn_oncho_oem_202310_2_participant_v2</t>
+  </si>
+  <si>
+    <t>4.b. Entrer le nom du village</t>
+  </si>
+  <si>
+    <t>4.c. Entrer le code du village</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>Code à 3 chiffres uniquement</t>
+  </si>
+  <si>
+    <t>p_cluster_name2</t>
+  </si>
+  <si>
+    <t>${p_cluster_name}= 'Autre'</t>
+  </si>
+  <si>
+    <t>sub_district_list = ${p_sub_district}</t>
+  </si>
+  <si>
+    <t>p_cluster_id</t>
   </si>
 </sst>
 </file>
@@ -777,13 +795,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD18"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -852,20 +870,20 @@
         <v>16</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="18" t="s">
@@ -883,7 +901,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="14"/>
@@ -903,10 +921,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="12"/>
@@ -927,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="12"/>
@@ -940,69 +958,74 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="63">
+      <c r="A6" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="63">
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="18" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
         <v>15</v>
@@ -1011,127 +1034,126 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:14" ht="47.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:14" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" ht="47.25">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="B10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="47.25">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:14" ht="47.25">
       <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="C12" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="F12" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>72</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="18" t="s">
         <v>45</v>
       </c>
+      <c r="I12" s="14"/>
       <c r="J12" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="31.5">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>74</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D13" s="16"/>
       <c r="F13" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>45</v>
@@ -1140,15 +1162,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="31.5">
       <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>45</v>
@@ -1159,50 +1190,64 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H16" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>60</v>
       </c>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10">
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
@@ -1210,6 +1255,9 @@
     </row>
     <row r="21" spans="1:10">
       <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="J22" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1222,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
@@ -1279,7 +1327,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>43</v>
@@ -1292,7 +1340,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>44</v>
@@ -1302,26 +1350,26 @@
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1">
       <c r="A6" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="11"/>
@@ -1612,7 +1660,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1634,10 +1682,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>

--- a/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_2_participant.xlsx
+++ b/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_2_participant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\OEM\Guinea Conakry\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4E1FE2-C749-4DC4-B329-1D7ADD3F47C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1F7091-81A4-4DF6-962C-5418AE32D928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -193,9 +193,6 @@
     <t>p_recorderID</t>
   </si>
   <si>
-    <t xml:space="preserve">regex(., '^GNE_[A-Z]{3}_oncho_[0-9]{3}_[0-9]{5}$') </t>
-  </si>
-  <si>
     <t>p_sub_district</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
   </si>
   <si>
     <t>10. Depuis combien d'années le participant vit dans la communauté?</t>
-  </si>
-  <si>
-    <t>Le format de ce code est incorrect. Exemple de format correct: GNE_ABC_oncho_123_01234</t>
   </si>
   <si>
     <t>Format du code: GNE_ABC_oncho_nnn_nnnnn où ABC doit-être remplacé par les 3 premières lettres du district en majuscule, nnn par le code du village ou communauté sur 3 chiffres et nnnnn par le numéro d'ordre du participant sur 5 chiffres.</t>
@@ -801,7 +795,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -873,17 +867,17 @@
         <v>52</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="18" t="s">
@@ -901,7 +895,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="14"/>
@@ -921,10 +915,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="12"/>
@@ -945,7 +939,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="12"/>
@@ -963,15 +957,15 @@
         <v>27</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
@@ -979,7 +973,7 @@
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="63">
@@ -987,20 +981,20 @@
         <v>14</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -1008,7 +1002,7 @@
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1">
@@ -1019,7 +1013,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -1036,13 +1030,13 @@
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="C9" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1064,23 +1058,19 @@
         <v>49</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>82</v>
-      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>15</v>
@@ -1091,23 +1081,19 @@
         <v>16</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>82</v>
-      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>15</v>
@@ -1121,7 +1107,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1146,14 +1132,14 @@
         <v>23</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="16"/>
       <c r="F13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>45</v>
@@ -1167,19 +1153,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="F14" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>45</v>
@@ -1196,7 +1182,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>45</v>
@@ -1228,7 +1214,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17" s="14"/>
     </row>
@@ -1350,26 +1336,26 @@
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="11"/>
@@ -1682,10 +1668,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
